--- a/lablist.xlsx
+++ b/lablist.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmi041/OneDrive - UiT Office 365/work/nestleder/labarealer/labmap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmi041/Library/CloudStorage/OneDrive-UiTOffice365/work/nestleder/labarealer/ips-labmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCAE1FC-B21F-F84A-A45B-699CE79884FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7639989C-8DEA-2B4C-A450-A1C7381841DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3940" windowWidth="27240" windowHeight="16440" xr2:uid="{07741C3A-E871-774A-99A3-FE0B76DB6EEA}"/>
+    <workbookView xWindow="6820" yWindow="3440" windowWidth="27240" windowHeight="16440" xr2:uid="{07741C3A-E871-774A-99A3-FE0B76DB6EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,26 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>mazemap-id</t>
   </si>
   <si>
-    <t>room-num</t>
-  </si>
-  <si>
     <t>nickname</t>
   </si>
   <si>
-    <t>rg-owner</t>
-  </si>
-  <si>
     <t>S33-H5-5387</t>
   </si>
   <si>
-    <t>5.387</t>
-  </si>
-  <si>
     <t>smertelab</t>
   </si>
   <si>
@@ -63,47 +54,68 @@
     <t>S33-H5-5386</t>
   </si>
   <si>
-    <t>5.386</t>
-  </si>
-  <si>
     <t>smertelab2</t>
   </si>
   <si>
-    <t>highlight-color</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>S33-H5-5362</t>
   </si>
   <si>
-    <t>5.362</t>
-  </si>
-  <si>
     <t>øyelab</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>S33-H5-5487</t>
   </si>
   <si>
-    <t>5.487</t>
-  </si>
-  <si>
-    <t>pink</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This lab contains a shielded experimental chamber. </t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>pain-stimulator, rTMS stimulator (Mag&amp;More), Neuronavigation system (Localite), EEG</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Research Group</t>
+  </si>
+  <si>
+    <t>Room Number</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>pain-stimulator</t>
+  </si>
+  <si>
+    <t>Eye-tracker (Eyelink 1000), old eyetracker (SMI), EEG</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>matthias.mittner@uit.no</t>
+  </si>
+  <si>
+    <t>5387-1.jpeg; 5387-2.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +128,14 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,14 +155,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,98 +481,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA17BB-E152-8648-BC92-AE1A0CAD16B9}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="30" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="86" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <v>5387</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="35" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>5386</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="52" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>5362</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>5487</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6">
+        <v>5582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>5588</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{3C14A4B7-F409-934F-B907-F3F186B95901}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{B8EDB09B-0D3D-934A-8DB6-314A293E3FDC}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{E9E4E1F6-D868-1D41-B0A3-AC1DB4F7791F}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{C4067F2B-A2E8-A54B-B1A3-B15E9905EB7A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lablist.xlsx
+++ b/lablist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmi041/Library/CloudStorage/OneDrive-UiTOffice365/work/nestleder/labarealer/ips-labmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7639989C-8DEA-2B4C-A450-A1C7381841DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{FEF3C490-2B81-ED44-8094-1CDFDAD0B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{686525AA-9636-416A-9BB4-95CE02ED7353}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="3440" windowWidth="27240" windowHeight="16440" xr2:uid="{07741C3A-E871-774A-99A3-FE0B76DB6EEA}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{11EDE595-D51A-0443-B694-ABD3B272423F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,88 +34,595 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="194">
   <si>
     <t>mazemap-id</t>
   </si>
   <si>
-    <t>nickname</t>
+    <t>Room Number</t>
+  </si>
+  <si>
+    <t>Research Group</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Lab/Kontor/Lager</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Booking Link</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>S33-H5-5247</t>
+  </si>
+  <si>
+    <t>Felles</t>
+  </si>
+  <si>
+    <t>Truls/Svein Are</t>
+  </si>
+  <si>
+    <t>Kontor</t>
+  </si>
+  <si>
+    <t>Kopi-/printer-rom/Lab/treningsrom/bibliotek. Ikke i bruk.</t>
+  </si>
+  <si>
+    <t>placeholder1.jpeg; placeholder2.jpeg</t>
+  </si>
+  <si>
+    <t>S33-H5-5347</t>
+  </si>
+  <si>
+    <t>S33-H5-5374</t>
+  </si>
+  <si>
+    <t>Studenter</t>
+  </si>
+  <si>
+    <t>Hege Tønsberg</t>
+  </si>
+  <si>
+    <t>Kontor. Lånes ut til studentrepresentant(er)</t>
+  </si>
+  <si>
+    <t>S33-H5-5380</t>
+  </si>
+  <si>
+    <t>Affektiv og kognitiv nevrofag</t>
+  </si>
+  <si>
+    <t>Susanne Wiking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 stk PCer, kjøleskap og diverse annet småutstyr </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Lab/kontor. Dør via 5381. Lydisolert.</t>
+  </si>
+  <si>
+    <t>S33-H5-5381</t>
+  </si>
+  <si>
+    <t>Lab/kontor. Dør til 5380.</t>
+  </si>
+  <si>
+    <t>S33-H5-5442</t>
+  </si>
+  <si>
+    <t>Kognitiv felleslab</t>
+  </si>
+  <si>
+    <t>Frode Svartdal</t>
+  </si>
+  <si>
+    <t>Bord, stol</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/channel/19%3Adc66a088cad3450d967e4d720b1d700a%40thread.tacv2/tab%3A%3A9644be9e-ee72-4997-adba-2c5ffacc74f2?groupId=4fdded06-b80a-40a0-b43f-b559600e1d3f&amp;tenantId=4e7f212d-74db-4563-a57b-8ae44ed05526</t>
+  </si>
+  <si>
+    <t>Lab. Ikke vindu ut. Dør via 5444. Tilhører 5444.</t>
+  </si>
+  <si>
+    <t>S33-H5-5444</t>
+  </si>
+  <si>
+    <t>Lab/kontor/gruppe/undervisning. Dør via 5446.</t>
+  </si>
+  <si>
+    <t>S33-H5-5446</t>
+  </si>
+  <si>
+    <t>Lab/kontor m/obs.vindu mot 5448. Dør til 5444,5448</t>
+  </si>
+  <si>
+    <t>S33-H5-5448</t>
+  </si>
+  <si>
+    <t>Lab/kontor m/obs.vindu mot 5446. Dør via 5446. Lydisolert.</t>
+  </si>
+  <si>
+    <t>S33-H5-5449</t>
+  </si>
+  <si>
+    <t>Kontor/utlånslager</t>
+  </si>
+  <si>
+    <t>Truls Traasdahl</t>
+  </si>
+  <si>
+    <t>Kontor/Lab. Dør til 5453.</t>
+  </si>
+  <si>
+    <t>S33-H5-5463</t>
+  </si>
+  <si>
+    <t>Klinikk</t>
+  </si>
+  <si>
+    <t>Eva Therese Næss</t>
+  </si>
+  <si>
+    <t>bord, skap, stoler, 2 PC, 1 telefon</t>
+  </si>
+  <si>
+    <t>Kontor.</t>
+  </si>
+  <si>
+    <t>S33-H5-5473</t>
+  </si>
+  <si>
+    <t>Kognitiv (ped/læring)</t>
+  </si>
+  <si>
+    <t>Bord, stol, benk</t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5475. Dør til 5475.</t>
+  </si>
+  <si>
+    <t>S33-H5-5475</t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5473. Dør via 5473. Lydisolert.</t>
+  </si>
+  <si>
+    <t>S33-H5-5480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sosial </t>
+  </si>
+  <si>
+    <t>Joar Vittersø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bord, stol, benk, PC </t>
+  </si>
+  <si>
+    <t>Lab/kontor m/foldevegg til 5481. Lydisolert, men ikke godt mot 5481.</t>
+  </si>
+  <si>
+    <t>S33-H5-5481</t>
+  </si>
+  <si>
+    <t>Sosial</t>
+  </si>
+  <si>
+    <t>Bord, stol, benk, PC, enveisspeil</t>
+  </si>
+  <si>
+    <t>Lab/kontor m/foldevegg til 5480. Obs.vindu mot 5482. Ikke dør mot 5482. Lydisolert, men ikke godt mot 5480</t>
+  </si>
+  <si>
+    <t>S33-H5-5482</t>
+  </si>
+  <si>
+    <t>Sosial/helse</t>
+  </si>
+  <si>
+    <t>Lab/kontor m/obs.vindu mot 5481. Ikke dør mot 5481.  Lydisolert.</t>
+  </si>
+  <si>
+    <t>S33-H5-5483</t>
+  </si>
+  <si>
+    <t>Bord, stol, benk, PC</t>
+  </si>
+  <si>
+    <t>Lab/kontor. Lydisolert.</t>
+  </si>
+  <si>
+    <t>S33-H5-5484</t>
+  </si>
+  <si>
+    <t>S33-H5-5485</t>
+  </si>
+  <si>
+    <t>S33-H5-5486</t>
+  </si>
+  <si>
+    <t>S33-H5-5549</t>
+  </si>
+  <si>
+    <t>S33-H5-5555</t>
+  </si>
+  <si>
+    <t>S33-H5-5570</t>
+  </si>
+  <si>
+    <t>S33-H5-5574</t>
+  </si>
+  <si>
+    <t>S33-H5-5581</t>
+  </si>
+  <si>
+    <t>S33-H5-5360</t>
+  </si>
+  <si>
+    <t>Kognitiv</t>
+  </si>
+  <si>
+    <t>Morten Ø</t>
+  </si>
+  <si>
+    <t>Lydisolert rom/bur, pc, skjerm</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Lab-audiokammer. Lydisolert.</t>
+  </si>
+  <si>
+    <t>S33-H5-5361</t>
+  </si>
+  <si>
+    <t>Klinisk nevro lab/Klinikk</t>
+  </si>
+  <si>
+    <t>Karen Hopmann</t>
+  </si>
+  <si>
+    <t>PC, overvåkningskamera, bord, stol, nevrotester</t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5367. Dør via 5367. Lydisolert. Videopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5362</t>
+  </si>
+  <si>
+    <t>Eyetracker/pc</t>
+  </si>
+  <si>
+    <t>Lab. Ikke vindu ut. Lydisolert.</t>
+  </si>
+  <si>
+    <t>S33-H5-5367</t>
+  </si>
+  <si>
+    <t>PC, video-lydutstyr, kontrollutstyr</t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5361. Dør til 5361. Kontroll videoopptaksutstyr 5361.</t>
+  </si>
+  <si>
+    <t>S33-H5-5369</t>
+  </si>
+  <si>
+    <t>2 PC, video-lydutstyr, kontrollutstyr, nevrotester, arkivskap</t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5373. Dør til 5373. Kontroll videoopptaksutstyr 5373.</t>
+  </si>
+  <si>
+    <t>S33-H5-5373</t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5369. Dør via 5369. Lydisolert. Videoopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5382</t>
+  </si>
+  <si>
+    <t>Ole Åsli</t>
+  </si>
+  <si>
+    <t>Startleutstyr (Coulbourn, 2010), pc, oksygentank</t>
+  </si>
+  <si>
+    <t>Lab. Lydisolert. Dør til 5383.</t>
+  </si>
+  <si>
+    <t>S33-H5-5383</t>
+  </si>
+  <si>
+    <t>Lab-skjermrom. Dør via 5382.</t>
+  </si>
+  <si>
+    <t>S33-H5-5385</t>
+  </si>
+  <si>
+    <t>Per M. Aslaksen</t>
+  </si>
+  <si>
+    <t>Utstyr til smerte og psykofysiologiske studier</t>
+  </si>
+  <si>
+    <t>Lab-skjermrom. Dør via 5386.</t>
+  </si>
+  <si>
+    <t>S33-H5-5386</t>
+  </si>
+  <si>
+    <t>Lab. Lydisolert. Dør til 8385.</t>
   </si>
   <si>
     <t>S33-H5-5387</t>
   </si>
   <si>
-    <t>smertelab</t>
-  </si>
-  <si>
-    <t>RG kognitiv nevro</t>
-  </si>
-  <si>
-    <t>S33-H5-5386</t>
-  </si>
-  <si>
-    <t>smertelab2</t>
-  </si>
-  <si>
-    <t>S33-H5-5362</t>
-  </si>
-  <si>
-    <t>øyelab</t>
+    <t>Eeg-utstyr og elektriske stimulatorer for smerte</t>
+  </si>
+  <si>
+    <t>Lab. Lydisolert. Dør til 5388.</t>
+  </si>
+  <si>
+    <t>S33-H5-5388</t>
+  </si>
+  <si>
+    <t>Lab-skjermrom. Dør via 5387.</t>
+  </si>
+  <si>
+    <t>S33-H5-5450</t>
+  </si>
+  <si>
+    <t>Anders Ågmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utstyr for preparering av stoffene til farmakologiske studier; utstyr for oppbevaring og preparasjon av vevprøver, farlige stoff. </t>
+  </si>
+  <si>
+    <t>Lab. Ikke vindu ut.</t>
+  </si>
+  <si>
+    <t>S33-H5-5461</t>
+  </si>
+  <si>
+    <t>2 stoler, videoutstyr + kamera</t>
+  </si>
+  <si>
+    <t>Lab/kontor. Lydisolert. Videopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5465</t>
+  </si>
+  <si>
+    <t>Kognitiv (læring)</t>
+  </si>
+  <si>
+    <t>Fastmontert kontrollutstyr</t>
+  </si>
+  <si>
+    <t>Lab. Lydisolert. Dør via 5467.</t>
+  </si>
+  <si>
+    <t>S33-H5-5467</t>
+  </si>
+  <si>
+    <t>Lab. Dør til 5465.</t>
   </si>
   <si>
     <t>S33-H5-5487</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This lab contains a shielded experimental chamber. </t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>pain-stimulator, rTMS stimulator (Mag&amp;More), Neuronavigation system (Localite), EEG</t>
-  </si>
-  <si>
-    <t>Booking</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Research Group</t>
-  </si>
-  <si>
-    <t>Room Number</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>pain-stimulator</t>
-  </si>
-  <si>
-    <t>Eye-tracker (Eyelink 1000), old eyetracker (SMI), EEG</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>matthias.mittner@uit.no</t>
-  </si>
-  <si>
-    <t>5387-1.jpeg; 5387-2.jpeg</t>
+    <t xml:space="preserve">Grupperom med enveisspeil. Noe opptaksutstyr </t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5488. Lydisolert. Kontroll videopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5488</t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5487. Dør via 5487. Lydisolert. Videoopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5544</t>
+  </si>
+  <si>
+    <t>bord, stoler, videoutstyr, kamera, DVD-spiller, TV</t>
+  </si>
+  <si>
+    <t>Lab. Lydisolert. Dør via 5546. Videoopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5546</t>
+  </si>
+  <si>
+    <t>Lab/kontor. Dør til 5544. Kontroll videopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5548</t>
+  </si>
+  <si>
+    <t>videoopptaksutstyr, 3 PC, bord, stoler</t>
+  </si>
+  <si>
+    <t>Lab/kontor m/obs.vindu mot 5550. Dør til 5550. Kontroll videoopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5550</t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5548. Dør til 5548. Lydisolert. Videoopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5551</t>
+  </si>
+  <si>
+    <t>Lab. Lydisolert. Videoopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5553</t>
+  </si>
+  <si>
+    <t>S33-H5-5560</t>
+  </si>
+  <si>
+    <t>Espen Bjørkedal</t>
+  </si>
+  <si>
+    <t>Lab-skjermrom. Dør via 5562.</t>
+  </si>
+  <si>
+    <t>S33-H5-5562</t>
+  </si>
+  <si>
+    <t>Lab. Lydisolert. Dør til 5560.</t>
+  </si>
+  <si>
+    <t>S33-H5-5563</t>
+  </si>
+  <si>
+    <t>kjøkken, leker, stoler, bord, videoutstyr</t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5569. Dør til 5569. Lydisolert. Videoopptaksutstyr. Vask.</t>
+  </si>
+  <si>
+    <t>S33-H5-5569</t>
+  </si>
+  <si>
+    <t>bord, stoler, 4 PC, videoopptaksutstyr, kontrollutstyr</t>
+  </si>
+  <si>
+    <t>Lab/kontor m/obs.vindu mot 5563. Dør til 5563 og 5573. Kontroll videoopptaksutstyr 5563 og 5573.</t>
+  </si>
+  <si>
+    <t>S33-H5-5572</t>
+  </si>
+  <si>
+    <t>Lab/kontor. Lydisolert. Videoopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5573</t>
+  </si>
+  <si>
+    <t>stoler, bord, TV, videotutstyr</t>
+  </si>
+  <si>
+    <t>Lab. Lydisolert. Dør til 5569. Videoopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5580</t>
+  </si>
+  <si>
+    <t>S33-H5-5582</t>
+  </si>
+  <si>
+    <t>Utvikling</t>
+  </si>
+  <si>
+    <t>Claudia R-A</t>
+  </si>
+  <si>
+    <t>Bord, stol, benk, audiometer og andre utstyr til hørselstesting</t>
+  </si>
+  <si>
+    <t>Kontor/Lab. Dør til 5583.</t>
+  </si>
+  <si>
+    <t>S33-H5-5583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirometriutstyr, utstyr til elektroglotografi (EGG), 2 Pcer, vask nødvendig </t>
+  </si>
+  <si>
+    <t>Lab/kontor. Dør til 5582. Lydisolert. Vask.</t>
+  </si>
+  <si>
+    <t>S33-H5-5584</t>
+  </si>
+  <si>
+    <t>Pcer, Printer til alle utviklingslab, bord, vekt, fast målbånd</t>
+  </si>
+  <si>
+    <t>Lab/kontor m/obs.vindu mot 5585. Dør til 5585.</t>
+  </si>
+  <si>
+    <t>S33-H5-5585</t>
+  </si>
+  <si>
+    <t>Tredemølle til dual-task studier/gangeanalyse, bord, PC</t>
+  </si>
+  <si>
+    <t>Lab/kontor m/obs.vindu mot 5584. Dør til 5584.</t>
+  </si>
+  <si>
+    <t>S33-H5-5586</t>
+  </si>
+  <si>
+    <t>Videosystem til kinematisk analyse av håndmotorikk/fastmontert</t>
+  </si>
+  <si>
+    <t>Lab/kontor m/obs.vindu mot 5588. Dør til 5588. Kontroll videoopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5588</t>
+  </si>
+  <si>
+    <t>Nevrokognitiv testrom, taleanalyse utstyr, fastmontert video</t>
+  </si>
+  <si>
+    <t>Lab m/obs.vindu mot 5586. Dør via 5586. Lydisolert. Videoopptaksutstyr.</t>
+  </si>
+  <si>
+    <t>S33-H5-5458</t>
+  </si>
+  <si>
+    <t>Verksted</t>
+  </si>
+  <si>
+    <t>Truls/Thomas</t>
+  </si>
+  <si>
+    <t>Lab/verksted</t>
+  </si>
+  <si>
+    <t>Verksted. Ikke vindu ut. Dør til 5462.</t>
+  </si>
+  <si>
+    <t>S33-H5-5462</t>
+  </si>
+  <si>
+    <t>Verksted. Ikke vindu ut. Dør via 5458.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,10 +631,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -157,15 +669,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -480,186 +1007,2059 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA17BB-E152-8648-BC92-AE1A0CAD16B9}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B593-D21A-BE46-8FC7-AE3C2C393564}">
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="3" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="8" max="8" width="9"/>
+    <col min="9" max="9" width="35.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5247</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5347</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B4" s="1">
+        <v>5374</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B5" s="1">
+        <v>5380</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="86" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5381</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5442</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5444</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5446</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5448</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5449</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="I11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5463</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5473</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5475</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5480</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5481</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5482</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5483</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5484</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5485</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5486</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5549</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5555</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5570</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5574</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5581</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5360</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="I27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5361</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5362</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="I29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5367</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5369</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5373</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5382</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="I33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5383</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="I34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5385</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5386</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1">
         <v>5387</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="35" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>5386</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="52" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5362</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5388</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5450</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5461</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5465</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5467</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="1">
         <v>5487</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6">
+      <c r="C43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5488</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5544</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5546</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5548</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5550</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5551</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5553</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5560</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5562</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5563</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="45">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5569</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5572</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5573</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="I56" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5580</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="1">
         <v>5582</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7">
+      <c r="C58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75">
+      <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="1">
         <v>5583</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8">
+      <c r="C59" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30">
+      <c r="A60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="1">
         <v>5584</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="C60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="30">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="1">
         <v>5585</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="C61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="30">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="1">
         <v>5586</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11">
+      <c r="C62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30">
+      <c r="A63" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="1">
         <v>5588</v>
       </c>
+      <c r="C63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5458</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="I64" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5462</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="I65" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75">
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75">
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75">
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75">
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75">
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75">
+      <c r="J71" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{3C14A4B7-F409-934F-B907-F3F186B95901}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{B8EDB09B-0D3D-934A-8DB6-314A293E3FDC}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{E9E4E1F6-D868-1D41-B0A3-AC1DB4F7791F}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{C4067F2B-A2E8-A54B-B1A3-B15E9905EB7A}"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{FA7C98A0-9A72-436A-927F-7A308EEBF6AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A6AB3617FDA7B4C8FD36D0C62F9CE22" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="948667d07806d71d4b4564a862f60064">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca387c32-34f0-45ff-a8a2-16b37eb01970" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22923a9921eadf70caa88484575068e9" ns2:_="">
+    <xsd:import namespace="ca387c32-34f0-45ff-a8a2-16b37eb01970"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca387c32-34f0-45ff-a8a2-16b37eb01970" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D48FC6C3-FA32-4BC0-BE89-5B086B9C4C87}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F28877-2B90-4EC3-8A1E-9E6DC9A44047}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB8591A-9AFA-4544-AE36-6F28A42A3A5E}"/>
 </file>
--- a/lablist.xlsx
+++ b/lablist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmi041/Library/CloudStorage/OneDrive-UiTOffice365/work/nestleder/labarealer/ips-labmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{FEF3C490-2B81-ED44-8094-1CDFDAD0B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{686525AA-9636-416A-9BB4-95CE02ED7353}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{FEF3C490-2B81-ED44-8094-1CDFDAD0B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEEE9B8D-B158-4373-8CA5-348BBF6AFB33}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{11EDE595-D51A-0443-B694-ABD3B272423F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="195">
   <si>
     <t>mazemap-id</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>S33-H5-5444</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/channel/19%3A07373dd1d53a4155a5a1c370df11df94%40thread.tacv2/tab%3A%3Aa3ca9679-4e1f-4ef8-b729-1de1c3ea49c0?groupId=4fdded06-b80a-40a0-b43f-b559600e1d3f&amp;tenantId=4e7f212d-74db-4563-a57b-8ae44ed05526</t>
   </si>
   <si>
     <t>Lab/kontor/gruppe/undervisning. Dør via 5446.</t>
@@ -1010,17 +1013,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B593-D21A-BE46-8FC7-AE3C2C393564}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="27.125" customWidth="1"/>
-    <col min="8" max="8" width="9"/>
-    <col min="9" max="9" width="35.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="39.125" style="6" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1221,7 +1225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1243,8 +1247,11 @@
       <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="H8" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>15</v>
@@ -1252,7 +1259,7 @@
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>5446</v>
@@ -1273,7 +1280,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>15</v>
@@ -1281,7 +1288,7 @@
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1">
         <v>5448</v>
@@ -1302,7 +1309,7 @@
         <v>33</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>15</v>
@@ -1310,16 +1317,16 @@
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1">
         <v>5449</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -1327,7 +1334,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="I11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>15</v>
@@ -1335,19 +1342,19 @@
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
         <v>5463</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
@@ -1356,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>15</v>
@@ -1364,19 +1371,19 @@
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1">
         <v>5473</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>13</v>
@@ -1385,7 +1392,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>15</v>
@@ -1393,19 +1400,19 @@
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
         <v>5475</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
@@ -1414,7 +1421,7 @@
         <v>33</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>15</v>
@@ -1422,19 +1429,19 @@
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1">
         <v>5480</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>13</v>
@@ -1443,7 +1450,7 @@
         <v>33</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>15</v>
@@ -1451,19 +1458,19 @@
     </row>
     <row r="16" spans="1:10" ht="45">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1">
         <v>5481</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
@@ -1472,7 +1479,7 @@
         <v>33</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>15</v>
@@ -1480,19 +1487,19 @@
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1">
         <v>5482</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
@@ -1501,7 +1508,7 @@
         <v>25</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>15</v>
@@ -1509,19 +1516,19 @@
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1">
         <v>5483</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
@@ -1530,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>15</v>
@@ -1538,19 +1545,19 @@
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1">
         <v>5484</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
@@ -1559,7 +1566,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>15</v>
@@ -1567,19 +1574,19 @@
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1">
         <v>5485</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>13</v>
@@ -1588,7 +1595,7 @@
         <v>25</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>15</v>
@@ -1596,19 +1603,19 @@
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1">
         <v>5486</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
@@ -1617,7 +1624,7 @@
         <v>25</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>15</v>
@@ -1625,19 +1632,19 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1">
         <v>5549</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
@@ -1654,19 +1661,19 @@
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1">
         <v>5555</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
@@ -1683,19 +1690,19 @@
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1">
         <v>5570</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>13</v>
@@ -1712,19 +1719,19 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1">
         <v>5574</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>13</v>
@@ -1741,19 +1748,19 @@
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1">
         <v>5581</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>13</v>
@@ -1770,26 +1777,26 @@
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1">
         <v>5360</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" s="3"/>
       <c r="I27" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>15</v>
@@ -1797,28 +1804,28 @@
     </row>
     <row r="28" spans="1:10" ht="30">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="1">
         <v>5361</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>15</v>
@@ -1826,26 +1833,26 @@
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1">
         <v>5362</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="3"/>
       <c r="I29" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>15</v>
@@ -1853,28 +1860,28 @@
     </row>
     <row r="30" spans="1:10" ht="30">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1">
         <v>5367</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>15</v>
@@ -1882,28 +1889,28 @@
     </row>
     <row r="31" spans="1:10" ht="30">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1">
         <v>5369</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>15</v>
@@ -1911,28 +1918,28 @@
     </row>
     <row r="32" spans="1:10" ht="30">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1">
         <v>5373</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>15</v>
@@ -1940,26 +1947,26 @@
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1">
         <v>5382</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G33" s="3"/>
       <c r="I33" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>15</v>
@@ -1967,24 +1974,24 @@
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" s="1">
         <v>5383</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" s="3"/>
       <c r="I34" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>15</v>
@@ -1992,7 +1999,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1">
         <v>5385</v>
@@ -2001,19 +2008,19 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>15</v>
@@ -2021,7 +2028,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1">
         <v>5386</v>
@@ -2030,19 +2037,19 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>15</v>
@@ -2050,7 +2057,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="1">
         <v>5387</v>
@@ -2059,19 +2066,19 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>15</v>
@@ -2079,7 +2086,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1">
         <v>5388</v>
@@ -2088,19 +2095,19 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>15</v>
@@ -2108,7 +2115,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B39" s="1">
         <v>5450</v>
@@ -2117,19 +2124,19 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>15</v>
@@ -2137,28 +2144,28 @@
     </row>
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1">
         <v>5461</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>15</v>
@@ -2166,28 +2173,28 @@
     </row>
     <row r="41" spans="1:10" ht="15.75">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1">
         <v>5465</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>15</v>
@@ -2195,28 +2202,28 @@
     </row>
     <row r="42" spans="1:10" ht="15.75">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" s="1">
         <v>5467</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>15</v>
@@ -2224,28 +2231,28 @@
     </row>
     <row r="43" spans="1:10" ht="30">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1">
         <v>5487</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>15</v>
@@ -2253,28 +2260,28 @@
     </row>
     <row r="44" spans="1:10" ht="30">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="1">
         <v>5488</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>15</v>
@@ -2282,28 +2289,28 @@
     </row>
     <row r="45" spans="1:10" ht="30">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1">
         <v>5544</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>15</v>
@@ -2311,28 +2318,28 @@
     </row>
     <row r="46" spans="1:10" ht="30">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1">
         <v>5546</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>15</v>
@@ -2340,28 +2347,28 @@
     </row>
     <row r="47" spans="1:10" ht="30">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B47" s="1">
         <v>5548</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>15</v>
@@ -2369,28 +2376,28 @@
     </row>
     <row r="48" spans="1:10" ht="30">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B48" s="1">
         <v>5550</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>15</v>
@@ -2398,28 +2405,28 @@
     </row>
     <row r="49" spans="1:10" ht="15.75">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1">
         <v>5551</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>15</v>
@@ -2427,28 +2434,28 @@
     </row>
     <row r="50" spans="1:10" ht="15.75">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B50" s="1">
         <v>5553</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>15</v>
@@ -2456,7 +2463,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.75">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B51" s="1">
         <v>5560</v>
@@ -2465,19 +2472,19 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>15</v>
@@ -2485,7 +2492,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.75">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B52" s="1">
         <v>5562</v>
@@ -2494,19 +2501,19 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>15</v>
@@ -2514,28 +2521,28 @@
     </row>
     <row r="53" spans="1:10" ht="30">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B53" s="1">
         <v>5563</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>15</v>
@@ -2543,28 +2550,28 @@
     </row>
     <row r="54" spans="1:10" ht="45">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B54" s="1">
         <v>5569</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>15</v>
@@ -2572,28 +2579,28 @@
     </row>
     <row r="55" spans="1:10" ht="15.75">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1">
         <v>5572</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>15</v>
@@ -2601,26 +2608,26 @@
     </row>
     <row r="56" spans="1:10" ht="30">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B56" s="1">
         <v>5573</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G56" s="3"/>
       <c r="I56" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>15</v>
@@ -2628,28 +2635,28 @@
     </row>
     <row r="57" spans="1:10" ht="15.75">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B57" s="1">
         <v>5580</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>15</v>
@@ -2657,28 +2664,28 @@
     </row>
     <row r="58" spans="1:10" ht="15.75">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B58" s="1">
         <v>5582</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>15</v>
@@ -2686,28 +2693,28 @@
     </row>
     <row r="59" spans="1:10" ht="15.75">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B59" s="1">
         <v>5583</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>15</v>
@@ -2715,28 +2722,28 @@
     </row>
     <row r="60" spans="1:10" ht="30">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B60" s="1">
         <v>5584</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>15</v>
@@ -2744,28 +2751,28 @@
     </row>
     <row r="61" spans="1:10" ht="30">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B61" s="1">
         <v>5585</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>15</v>
@@ -2773,28 +2780,28 @@
     </row>
     <row r="62" spans="1:10" ht="30">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B62" s="1">
         <v>5586</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>15</v>
@@ -2802,28 +2809,28 @@
     </row>
     <row r="63" spans="1:10" ht="30">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B63" s="1">
         <v>5588</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>15</v>
@@ -2831,24 +2838,24 @@
     </row>
     <row r="64" spans="1:10" ht="15.75">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B64" s="1">
         <v>5458</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G64" s="3"/>
       <c r="I64" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>15</v>
@@ -2856,24 +2863,24 @@
     </row>
     <row r="65" spans="1:10" ht="15.75">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B65" s="1">
         <v>5462</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G65" s="3"/>
       <c r="I65" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>15</v>
@@ -2900,6 +2907,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{FA7C98A0-9A72-436A-927F-7A308EEBF6AF}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{E84FE3D7-5C17-4821-B853-43838D1FFC75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lablist.xlsx
+++ b/lablist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmi041/Library/CloudStorage/OneDrive-UiTOffice365/work/nestleder/labarealer/ips-labmap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmi041/Dropbox/work/nestleder/labarealer/ips-labmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{FEF3C490-2B81-ED44-8094-1CDFDAD0B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEEE9B8D-B158-4373-8CA5-348BBF6AFB33}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D0CDC1-7BB2-6D4D-AB8C-2351C0AAE1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{11EDE595-D51A-0443-B694-ABD3B272423F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="196">
   <si>
     <t>mazemap-id</t>
   </si>
@@ -619,13 +619,16 @@
   </si>
   <si>
     <t>Verksted. Ikke vindu ut. Dør via 5458.</t>
+  </si>
+  <si>
+    <t>5362_0.JPG;5362_1.JPG;5362_2.JPG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1013,22 +1016,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B593-D21A-BE46-8FC7-AE3C2C393564}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="39.125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="3" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
+    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
+    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30">
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30">
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45">
+    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
+    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30">
+    <row r="28" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -1855,10 +1858,10 @@
         <v>94</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30">
+    <row r="31" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30">
+    <row r="32" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30">
+    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="30">
+    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="30">
+    <row r="45" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="30">
+    <row r="46" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="30">
+    <row r="47" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="30">
+    <row r="48" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30">
+    <row r="53" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="45">
+    <row r="54" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="30">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>168</v>
       </c>
@@ -2691,7 +2694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -2720,7 +2723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="30">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="30">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="30">
+    <row r="62" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30">
+    <row r="63" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -2886,22 +2889,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" ht="15.75">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" ht="15.75">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" ht="15.75">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:10" ht="15.75">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" ht="15.75">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J71" s="3"/>
     </row>
   </sheetData>
@@ -2914,21 +2917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A6AB3617FDA7B4C8FD36D0C62F9CE22" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="948667d07806d71d4b4564a862f60064">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca387c32-34f0-45ff-a8a2-16b37eb01970" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22923a9921eadf70caa88484575068e9" ns2:_="">
     <xsd:import namespace="ca387c32-34f0-45ff-a8a2-16b37eb01970"/>
@@ -3060,14 +3048,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D48FC6C3-FA32-4BC0-BE89-5B086B9C4C87}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB8591A-9AFA-4544-AE36-6F28A42A3A5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca387c32-34f0-45ff-a8a2-16b37eb01970"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F28877-2B90-4EC3-8A1E-9E6DC9A44047}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F28877-2B90-4EC3-8A1E-9E6DC9A44047}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB8591A-9AFA-4544-AE36-6F28A42A3A5E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D48FC6C3-FA32-4BC0-BE89-5B086B9C4C87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lablist.xlsx
+++ b/lablist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmi041/Dropbox/work/nestleder/labarealer/ips-labmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D0CDC1-7BB2-6D4D-AB8C-2351C0AAE1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B03D47-217E-3D4A-95CF-BCD5787928B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{11EDE595-D51A-0443-B694-ABD3B272423F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="224">
   <si>
     <t>mazemap-id</t>
   </si>
@@ -622,6 +622,90 @@
   </si>
   <si>
     <t>5362_0.JPG;5362_1.JPG;5362_2.JPG</t>
+  </si>
+  <si>
+    <t>5367-5361_0.JPG;5367-5361_1.JPG;5367-5361_2.JPG</t>
+  </si>
+  <si>
+    <t>5369-5373_0.JPG;5369-5373_1.JPG;5369-5373_2.JPG</t>
+  </si>
+  <si>
+    <t>5381-5380_0.JPG;5381-5380_1.JPG;5381-5380_2.JPG</t>
+  </si>
+  <si>
+    <t>5382_0.JPG;5382_1.JPG;5382_2.JPG;5382_3.JPG</t>
+  </si>
+  <si>
+    <t>5386_0.JPG;5386_1.JPG;5386_2.JPG</t>
+  </si>
+  <si>
+    <t>5387_0.JPG;5387_1.JPG;5387_2.JPG</t>
+  </si>
+  <si>
+    <t>5467-5465_0.JPG;5467-5465_1.JPG;5467-5465_2.JPG;5467-5465_3.JPG</t>
+  </si>
+  <si>
+    <t>5480_0.JPG;5480_1.JPG</t>
+  </si>
+  <si>
+    <t>5485_0.JPG;5485_1.JPG</t>
+  </si>
+  <si>
+    <t>5484_0.JPG;5484_1.JPG</t>
+  </si>
+  <si>
+    <t>5481_0.JPG;5481_1.JPG</t>
+  </si>
+  <si>
+    <t>5482_0.JPG;5482_1.JPG</t>
+  </si>
+  <si>
+    <t>5483_0.JPG;5483_1.JPG</t>
+  </si>
+  <si>
+    <t>5486_0.JPG;5486_1.JPG;5486_2.JPG</t>
+  </si>
+  <si>
+    <t>5487_0.JPG;5487_1.JPG</t>
+  </si>
+  <si>
+    <t>5488_1.JPG</t>
+  </si>
+  <si>
+    <t>5562_0.JPG;5562_1.JPG;5562_2.JPG</t>
+  </si>
+  <si>
+    <t>S33-H5-5564</t>
+  </si>
+  <si>
+    <t>Lab/Vask</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Vask for EEG</t>
+  </si>
+  <si>
+    <t>Lab/vask</t>
+  </si>
+  <si>
+    <t>5564_0.JPG;5564_1.JPG</t>
+  </si>
+  <si>
+    <t>5582_0.JPG;5582_1.JPG</t>
+  </si>
+  <si>
+    <t>5583_0.JPG;5583_1.JPG</t>
+  </si>
+  <si>
+    <t>5584_0.JPG;5584_1.JPG</t>
+  </si>
+  <si>
+    <t>5585_0.JPG;5585_1.JPG</t>
+  </si>
+  <si>
+    <t>5586_0.JPG;5586_1.JPG;5586_2.JPG;5586_3.JPG; 5586-5588_1.JPG;5586-5588_2.JPG</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B593-D21A-BE46-8FC7-AE3C2C393564}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1248,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1193,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1456,7 +1540,7 @@
         <v>62</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -1485,7 +1569,7 @@
         <v>66</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -1514,7 +1598,7 @@
         <v>69</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1543,7 +1627,7 @@
         <v>72</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1572,7 +1656,7 @@
         <v>72</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1601,7 +1685,7 @@
         <v>72</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1630,7 +1714,7 @@
         <v>72</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1658,9 +1742,6 @@
       <c r="I22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1887,7 +1968,7 @@
         <v>97</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -1916,7 +1997,7 @@
         <v>100</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -1972,7 +2053,7 @@
         <v>106</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2055,7 +2136,7 @@
         <v>114</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2084,7 +2165,7 @@
         <v>117</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2200,7 +2281,7 @@
         <v>130</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2229,7 +2310,7 @@
         <v>132</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -2258,7 +2339,7 @@
         <v>135</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -2287,7 +2368,7 @@
         <v>137</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -2519,7 +2600,7 @@
         <v>155</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -2691,7 +2772,7 @@
         <v>172</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2720,7 +2801,7 @@
         <v>175</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2749,7 +2830,7 @@
         <v>178</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2778,7 +2859,7 @@
         <v>181</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -2807,7 +2888,7 @@
         <v>184</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -2836,7 +2917,7 @@
         <v>187</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2890,7 +2971,30 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J66" s="3"/>
+      <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5564</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J67" s="3"/>

--- a/lablist.xlsx
+++ b/lablist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmi041/Dropbox/work/nestleder/labarealer/ips-labmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B03D47-217E-3D4A-95CF-BCD5787928B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39D6920-985C-0E43-ABA1-4C36EA7AEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{11EDE595-D51A-0443-B694-ABD3B272423F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="223">
   <si>
     <t>mazemap-id</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Kopi-/printer-rom/Lab/treningsrom/bibliotek. Ikke i bruk.</t>
   </si>
   <si>
-    <t>placeholder1.jpeg; placeholder2.jpeg</t>
-  </si>
-  <si>
     <t>S33-H5-5347</t>
   </si>
   <si>
@@ -681,9 +678,6 @@
     <t>Lab/Vask</t>
   </si>
   <si>
-    <t>Matthias</t>
-  </si>
-  <si>
     <t>Vask for EEG</t>
   </si>
   <si>
@@ -706,6 +700,9 @@
   </si>
   <si>
     <t>5586_0.JPG;5586_1.JPG;5586_2.JPG;5586_3.JPG; 5586-5588_1.JPG;5586-5588_2.JPG</t>
+  </si>
+  <si>
+    <t>Matthias Mittner</t>
   </si>
 </sst>
 </file>
@@ -1100,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B593-D21A-BE46-8FC7-AE3C2C393564}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1168,13 +1165,11 @@
       <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>5347</v>
@@ -1193,22 +1188,20 @@
       <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>5374</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -1216,204 +1209,194 @@
       </c>
       <c r="G4" s="3"/>
       <c r="I4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>5380</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>5381</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>5442</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>5444</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>5446</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
         <v>5448</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>5449</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -1421,323 +1404,315 @@
       </c>
       <c r="G11" s="3"/>
       <c r="I11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1">
         <v>5463</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>5473</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1">
         <v>5475</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>5480</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1">
         <v>5481</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1">
         <v>5482</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1">
         <v>5483</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1">
         <v>5484</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1">
         <v>5485</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1">
         <v>5486</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1">
         <v>5549</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>13</v>
@@ -1745,1255 +1720,1203 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1">
         <v>5555</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
         <v>5570</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1">
         <v>5574</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1">
         <v>5581</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1">
         <v>5360</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="3"/>
       <c r="I27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1">
         <v>5361</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1">
         <v>5362</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="3"/>
       <c r="I29" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1">
         <v>5367</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1">
         <v>5369</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="J31" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="1">
         <v>5373</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1">
         <v>5382</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" s="3"/>
       <c r="I33" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1">
         <v>5383</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" s="3"/>
       <c r="I34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1">
         <v>5385</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="1">
         <v>5386</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1">
         <v>5387</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="J37" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="1">
         <v>5388</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1">
         <v>5450</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" s="1">
         <v>5461</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1">
         <v>5465</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="J41" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="1">
         <v>5467</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="1">
         <v>5487</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="J43" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="1">
         <v>5488</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="1">
         <v>5544</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" s="1">
         <v>5546</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1">
         <v>5548</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="1">
         <v>5550</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E48" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" s="1">
         <v>5551</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50" s="1">
         <v>5553</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E50" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B51" s="1">
         <v>5560</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" s="1">
         <v>5562</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B53" s="1">
         <v>5563</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E53" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" s="1">
         <v>5569</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E54" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55" s="1">
         <v>5572</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" s="1">
         <v>5573</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56" s="3"/>
       <c r="I56" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1">
         <v>5580</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E57" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B58" s="1">
         <v>5582</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="J58" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B59" s="1">
         <v>5583</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="J59" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B60" s="1">
         <v>5584</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="J60" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61" s="1">
         <v>5585</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E61" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="J61" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B62" s="1">
         <v>5586</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E62" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="J62" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" s="1">
         <v>5588</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E63" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="J63" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="1">
         <v>5458</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G64" s="3"/>
       <c r="I64" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B65" s="1">
         <v>5462</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G65" s="3"/>
       <c r="I65" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B66" s="1">
         <v>5564</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="F66" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="G66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">

--- a/lablist.xlsx
+++ b/lablist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmi041/Dropbox/work/nestleder/labarealer/ips-labmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{F39D6920-985C-0E43-ABA1-4C36EA7AEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DF07A17-46DB-4301-97D5-72DAE7A4C058}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{F39D6920-985C-0E43-ABA1-4C36EA7AEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB7ED2CD-3261-4CEB-AEB4-C1F4117F2812}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{11EDE595-D51A-0443-B694-ABD3B272423F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="123">
   <si>
     <t>mazemap-id</t>
   </si>
@@ -200,7 +200,7 @@
     <t>Kognitiv</t>
   </si>
   <si>
-    <t>Morten Ø</t>
+    <t>Morten Øvervoll</t>
   </si>
   <si>
     <t>Lydisolert rom/bur, pc, skjerm</t>
@@ -209,27 +209,9 @@
     <t>Lab-audiokammer. Lydisolert.</t>
   </si>
   <si>
-    <t>S33-H5-5361</t>
-  </si>
-  <si>
-    <t>Klinisk nevro lab/Klinikk</t>
-  </si>
-  <si>
-    <t>Karen Hopmann</t>
-  </si>
-  <si>
-    <t>PC, overvåkningskamera, bord, stol, nevrotester</t>
-  </si>
-  <si>
-    <t>Lab m/obs.vindu mot 5367. Dør via 5367. Lydisolert. Videopptaksutstyr.</t>
-  </si>
-  <si>
     <t>S33-H5-5362</t>
   </si>
   <si>
-    <t>Morten Øvervoll</t>
-  </si>
-  <si>
     <t>Eyetracker/pc</t>
   </si>
   <si>
@@ -423,21 +405,6 @@
   </si>
   <si>
     <t>5586_0.JPG;5586_1.JPG;5586_2.JPG;5586_3.JPG; 5586-5588_1.JPG;5586-5588_2.JPG</t>
-  </si>
-  <si>
-    <t>S33-H5-5564</t>
-  </si>
-  <si>
-    <t>Lab/Vask</t>
-  </si>
-  <si>
-    <t>Vask for EEG</t>
-  </si>
-  <si>
-    <t>Lab/vask</t>
-  </si>
-  <si>
-    <t>5564_0.JPG;5564_1.JPG</t>
   </si>
 </sst>
 </file>
@@ -540,7 +507,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -852,11 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781B593-D21A-BE46-8FC7-AE3C2C393564}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1188,21 +1155,21 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="1">
-        <v>5361</v>
+        <v>5362</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>29</v>
@@ -1211,25 +1178,27 @@
         <v>44</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1">
-        <v>5362</v>
+        <v>5382</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>29</v>
@@ -1238,28 +1207,26 @@
         <v>44</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1">
-        <v>5382</v>
+        <v>5383</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1267,52 +1234,52 @@
         <v>44</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1">
-        <v>5383</v>
+        <v>5385</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1">
-        <v>5385</v>
+        <v>5386</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>29</v>
@@ -1321,25 +1288,27 @@
         <v>44</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1">
-        <v>5386</v>
+        <v>5387</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>29</v>
@@ -1348,27 +1317,27 @@
         <v>44</v>
       </c>
       <c r="I17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1">
-        <v>5387</v>
+        <v>5388</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>29</v>
@@ -1377,54 +1346,54 @@
         <v>44</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="1">
-        <v>5388</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B20" s="1">
+        <v>5560</v>
+      </c>
       <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>29</v>
@@ -1433,27 +1402,25 @@
         <v>44</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1">
-        <v>5560</v>
+        <v>5562</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>29</v>
@@ -1462,25 +1429,27 @@
         <v>44</v>
       </c>
       <c r="I21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5582</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
+      <c r="E22" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B22" s="1">
-        <v>5562</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>29</v>
@@ -1500,16 +1469,16 @@
         <v>102</v>
       </c>
       <c r="B23" s="1">
-        <v>5582</v>
+        <v>5583</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>29</v>
@@ -1518,21 +1487,21 @@
         <v>44</v>
       </c>
       <c r="I23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" t="s">
+      <c r="B24" s="1">
+        <v>5584</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5583</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>109</v>
@@ -1558,113 +1527,64 @@
         <v>113</v>
       </c>
       <c r="B25" s="1">
-        <v>5584</v>
+        <v>5585</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="J25" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5585</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="I26" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="A27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>128</v>
-      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5564</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
       <c r="J29" s="3"/>
@@ -1675,39 +1595,44 @@
     <row r="31" spans="1:10">
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="10:10">
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="10:10" ht="15.75"/>
-    <row r="35" spans="10:10" ht="15.75"/>
-    <row r="36" spans="10:10" ht="15.75"/>
-    <row r="37" spans="10:10" ht="15.75"/>
-    <row r="38" spans="10:10" ht="15.75"/>
-    <row r="39" spans="10:10" ht="15.75"/>
-    <row r="40" spans="10:10" ht="15.75"/>
-    <row r="41" spans="10:10" ht="15.75"/>
-    <row r="45" spans="10:10" ht="15.75"/>
-    <row r="50" ht="15.75"/>
-    <row r="53" ht="15.75"/>
-    <row r="58" ht="15.75"/>
-    <row r="62" ht="15.75"/>
+    <row r="32" spans="1:10" ht="15.75"/>
+    <row r="33" ht="15.75"/>
+    <row r="34" ht="15.75"/>
+    <row r="35" ht="15.75"/>
+    <row r="36" ht="15.75"/>
+    <row r="37" ht="15.75"/>
+    <row r="38" ht="15.75"/>
+    <row r="39" ht="15.75"/>
+    <row r="43" ht="15.75"/>
+    <row r="48" ht="15.75"/>
+    <row r="51" ht="15.75"/>
+    <row r="56" ht="15.75"/>
+    <row r="60" ht="15.75"/>
+    <row r="61" ht="15.75"/>
     <row r="63" ht="15.75"/>
+    <row r="64" ht="15.75"/>
     <row r="65" ht="15.75"/>
     <row r="66" ht="15.75"/>
-    <row r="67" ht="15.75"/>
     <row r="68" ht="15.75"/>
+    <row r="69" ht="15.75"/>
     <row r="70" ht="15.75"/>
-    <row r="71" ht="15.75"/>
-    <row r="72" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca387c32-34f0-45ff-a8a2-16b37eb01970">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dd74fa1c-caf4-4802-9b5c-5dcf1f67fa8a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A6AB3617FDA7B4C8FD36D0C62F9CE22" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c018a29c536da21f5b73a76ff792bc42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca387c32-34f0-45ff-a8a2-16b37eb01970" xmlns:ns3="dd74fa1c-caf4-4802-9b5c-5dcf1f67fa8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e272130ac57c66cf5e32903a2874a70d" ns2:_="" ns3:_="">
     <xsd:import namespace="ca387c32-34f0-45ff-a8a2-16b37eb01970"/>
@@ -1896,17 +1821,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca387c32-34f0-45ff-a8a2-16b37eb01970">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dd74fa1c-caf4-4802-9b5c-5dcf1f67fa8a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1917,11 +1831,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A61CD57F-8DA4-4F7C-92FF-16BC740CAA0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F28877-2B90-4EC3-8A1E-9E6DC9A44047}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F28877-2B90-4EC3-8A1E-9E6DC9A44047}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A61CD57F-8DA4-4F7C-92FF-16BC740CAA0D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
